--- a/document/网站模块设计/危废管理系统网站模块设计.xlsx
+++ b/document/网站模块设计/危废管理系统网站模块设计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="147">
   <si>
     <t>statistics_graph_enterprise</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,6 +562,46 @@
   </si>
   <si>
     <t>GIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country/province/city/district_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产企业首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>production_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输企业首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受单位首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +626,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -619,15 +667,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,15 +1062,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1031,7 +1081,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1090,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1099,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1108,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1117,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1076,28 +1126,28 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1113,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1125,21 +1175,21 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1147,644 +1197,704 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>122</v>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>123</v>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>124</v>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>125</v>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>128</v>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>129</v>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>130</v>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" t="s">
-        <v>91</v>
+      <c r="D35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>97</v>
+      <c r="D37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E42" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E43" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E45" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E46" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E48" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
+      <c r="B50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="B52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E53" s="1" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="C17:C28"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A47:A53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/网站模块设计/危废管理系统网站模块设计.xlsx
+++ b/document/网站模块设计/危废管理系统网站模块设计.xlsx
@@ -670,11 +670,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1070,7 +1070,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1126,28 +1126,28 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,16 +1197,16 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>75</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1" t="s">
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -1605,7 +1605,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="1" t="s">
@@ -1616,7 +1616,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>78</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="1" t="s">
@@ -1711,7 +1711,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>100</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="1" t="s">
@@ -1737,7 +1737,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>101</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1780,7 +1780,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="1" t="s">
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>115</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="1" t="s">
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
         <v>100</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="1" t="s">
@@ -1859,42 +1859,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A47:A53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/网站模块设计/危废管理系统网站模块设计.xlsx
+++ b/document/网站模块设计/危废管理系统网站模块设计.xlsx
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>statistic_analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>business</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +598,10 @@
   </si>
   <si>
     <t>reception_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_statistic_analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,28 +1198,28 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>36</v>
@@ -1370,7 +1370,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1379,13 +1379,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1393,10 +1393,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1405,13 +1405,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1419,10 +1419,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1430,10 +1430,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1441,10 +1441,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1452,10 +1452,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1463,10 +1463,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1474,10 +1474,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1485,10 +1485,10 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1496,10 +1496,10 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1507,10 +1507,10 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1518,10 +1518,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1529,36 +1529,36 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>39</v>
@@ -1572,25 +1572,25 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1598,10 +1598,10 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1609,25 +1609,25 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1635,25 +1635,25 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1661,27 +1661,27 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1690,7 +1690,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>39</v>
@@ -1704,25 +1704,25 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -1730,25 +1730,25 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -1756,27 +1756,27 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -1785,13 +1785,13 @@
         <v>39</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -1799,25 +1799,25 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -1825,25 +1825,25 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -1851,33 +1851,15 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -1894,7 +1876,25 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
